--- a/static/download/2023/RP3_APT_TxOut_2023_Jan_Dec.xlsx
+++ b/static/download/2023/RP3_APT_TxOut_2023_Jan_Dec.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="127">
   <si>
     <t>Data source</t>
   </si>
@@ -390,16 +390,20 @@
   </si>
   <si>
     <t>Comment</t>
+  </si>
+  <si>
+    <t>Stuttgart airport data added</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="d&quot; &quot;mmm&quot; &quot;yyyy"/>
     <numFmt numFmtId="165" formatCode="m/d/yyyy"/>
     <numFmt numFmtId="166" formatCode="d mmm yyyy"/>
+    <numFmt numFmtId="167" formatCode="dd-mm-yyyy"/>
   </numFmts>
   <fonts count="14">
     <font>
@@ -545,7 +549,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="39">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -640,14 +644,14 @@
     <xf borderId="0" fillId="4" fontId="12" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" shrinkToFit="0" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="3" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="13" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="13" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="0"/>
@@ -660,9 +664,6 @@
     </xf>
     <xf borderId="0" fillId="3" fontId="7" numFmtId="17" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="3" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -728,7 +729,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="8">
-        <v>45338.0</v>
+        <v>45365.0</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>5</v>
@@ -811,7 +812,7 @@
         <v>92344.0</v>
       </c>
       <c r="E6" s="26">
-        <f t="shared" ref="E6:E12" si="1">F6/D6</f>
+        <f t="shared" ref="E6:E17" si="1">F6/D6</f>
         <v>2.137182708</v>
       </c>
       <c r="F6" s="25">
@@ -975,10 +976,19 @@
       <c r="C13" s="24" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="25"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="27"/>
+      <c r="D13" s="25">
+        <v>43570.0</v>
+      </c>
+      <c r="E13" s="26">
+        <f t="shared" si="1"/>
+        <v>1.659377056</v>
+      </c>
+      <c r="F13" s="25">
+        <v>72299.05833</v>
+      </c>
+      <c r="G13" s="27">
+        <v>9.02</v>
+      </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="23" t="s">
@@ -994,7 +1004,7 @@
         <v>69994.0</v>
       </c>
       <c r="E14" s="26">
-        <f t="shared" ref="E14:E17" si="2">F14/D14</f>
+        <f t="shared" si="1"/>
         <v>3.024120878</v>
       </c>
       <c r="F14" s="25">
@@ -1018,7 +1028,7 @@
         <v>223902.0</v>
       </c>
       <c r="E15" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>3.133957192</v>
       </c>
       <c r="F15" s="25">
@@ -1042,7 +1052,7 @@
         <v>118631.0</v>
       </c>
       <c r="E16" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4.432353263</v>
       </c>
       <c r="F16" s="25">
@@ -1066,7 +1076,7 @@
         <v>108214.0</v>
       </c>
       <c r="E17" s="26">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2.594271536</v>
       </c>
       <c r="F17" s="25">
@@ -1105,7 +1115,7 @@
         <v>102242.0</v>
       </c>
       <c r="E19" s="26">
-        <f t="shared" ref="E19:E29" si="3">F19/D19</f>
+        <f t="shared" ref="E19:E29" si="2">F19/D19</f>
         <v>3.794600067</v>
       </c>
       <c r="F19" s="25">
@@ -1129,7 +1139,7 @@
         <v>81468.0</v>
       </c>
       <c r="E20" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.593243461</v>
       </c>
       <c r="F20" s="25">
@@ -1153,7 +1163,7 @@
         <v>91493.0</v>
       </c>
       <c r="E21" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.820109826</v>
       </c>
       <c r="F21" s="25">
@@ -1177,7 +1187,7 @@
         <v>62308.0</v>
       </c>
       <c r="E22" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.812458673</v>
       </c>
       <c r="F22" s="25">
@@ -1201,7 +1211,7 @@
         <v>49613.0</v>
       </c>
       <c r="E23" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>1.387708027</v>
       </c>
       <c r="F23" s="25">
@@ -1225,7 +1235,7 @@
         <v>156327.0</v>
       </c>
       <c r="E24" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.9339026</v>
       </c>
       <c r="F24" s="25">
@@ -1249,7 +1259,7 @@
         <v>183898.0</v>
       </c>
       <c r="E25" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>3.289087429</v>
       </c>
       <c r="F25" s="25">
@@ -1273,7 +1283,7 @@
         <v>76881.0</v>
       </c>
       <c r="E26" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.004366814</v>
       </c>
       <c r="F26" s="25">
@@ -1297,7 +1307,7 @@
         <v>112179.0</v>
       </c>
       <c r="E27" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>2.405292138</v>
       </c>
       <c r="F27" s="25">
@@ -1321,7 +1331,7 @@
         <v>33378.0</v>
       </c>
       <c r="E28" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.6833842651</v>
       </c>
       <c r="F28" s="25">
@@ -1345,7 +1355,7 @@
         <v>43458.0</v>
       </c>
       <c r="E29" s="26">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0.9186801049</v>
       </c>
       <c r="F29" s="25">
@@ -1384,7 +1394,7 @@
         <v>72678.0</v>
       </c>
       <c r="E31" s="26">
-        <f t="shared" ref="E31:E47" si="4">F31/D31</f>
+        <f t="shared" ref="E31:E47" si="3">F31/D31</f>
         <v>1.983082914</v>
       </c>
       <c r="F31" s="25">
@@ -1408,7 +1418,7 @@
         <v>201468.0</v>
       </c>
       <c r="E32" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.947591346</v>
       </c>
       <c r="F32" s="25">
@@ -1432,7 +1442,7 @@
         <v>103836.0</v>
       </c>
       <c r="E33" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.96265746</v>
       </c>
       <c r="F33" s="25">
@@ -1456,7 +1466,7 @@
         <v>116738.0</v>
       </c>
       <c r="E34" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.847373178</v>
       </c>
       <c r="F34" s="25">
@@ -1480,7 +1490,7 @@
         <v>52624.0</v>
       </c>
       <c r="E35" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.090580977</v>
       </c>
       <c r="F35" s="25">
@@ -1504,7 +1514,7 @@
         <v>95480.0</v>
       </c>
       <c r="E36" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.555973327</v>
       </c>
       <c r="F36" s="25">
@@ -1528,7 +1538,7 @@
         <v>50721.0</v>
       </c>
       <c r="E37" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.819108456</v>
       </c>
       <c r="F37" s="25">
@@ -1552,7 +1562,7 @@
         <v>54244.0</v>
       </c>
       <c r="E38" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.365547956</v>
       </c>
       <c r="F38" s="25">
@@ -1576,7 +1586,7 @@
         <v>42578.0</v>
       </c>
       <c r="E39" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.693703321</v>
       </c>
       <c r="F39" s="25">
@@ -1600,7 +1610,7 @@
         <v>126228.0</v>
       </c>
       <c r="E40" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>5.929936306</v>
       </c>
       <c r="F40" s="25">
@@ -1624,7 +1634,7 @@
         <v>56442.0</v>
       </c>
       <c r="E41" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.296091563</v>
       </c>
       <c r="F41" s="25">
@@ -1648,7 +1658,7 @@
         <v>117118.0</v>
       </c>
       <c r="E42" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.842682594</v>
       </c>
       <c r="F42" s="25">
@@ -1672,7 +1682,7 @@
         <v>52003.0</v>
       </c>
       <c r="E43" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>1.598655366</v>
       </c>
       <c r="F43" s="25">
@@ -1696,7 +1706,7 @@
         <v>106791.0</v>
       </c>
       <c r="E44" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>3.81591754</v>
       </c>
       <c r="F44" s="25">
@@ -1720,7 +1730,7 @@
         <v>51020.0</v>
       </c>
       <c r="E45" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.173853391</v>
       </c>
       <c r="F45" s="25">
@@ -1744,7 +1754,7 @@
         <v>84295.0</v>
       </c>
       <c r="E46" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.404908753</v>
       </c>
       <c r="F46" s="25">
@@ -1768,7 +1778,7 @@
         <v>119668.0</v>
       </c>
       <c r="E47" s="26">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>2.943296802</v>
       </c>
       <c r="F47" s="25">
@@ -1814,15 +1824,17 @@
       </c>
     </row>
     <row r="2" ht="15.75" customHeight="1">
-      <c r="A2" s="32" t="s">
-        <v>9</v>
+      <c r="A2" s="32">
+        <v>45365.0</v>
       </c>
       <c r="B2" s="33" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="34"/>
+        <v>36</v>
+      </c>
+      <c r="C2" s="34">
+        <v>2023.0</v>
+      </c>
       <c r="D2" s="33" t="s">
-        <v>9</v>
+        <v>126</v>
       </c>
     </row>
     <row r="3" ht="15.75" customHeight="1">
@@ -1840,7 +1852,7 @@
     <row r="5" ht="15.75" customHeight="1">
       <c r="A5" s="37"/>
       <c r="B5" s="38"/>
-      <c r="C5" s="39"/>
+      <c r="C5" s="34"/>
       <c r="D5" s="33"/>
     </row>
   </sheetData>
